--- a/MachineLearning/results/masterSheet.xlsx
+++ b/MachineLearning/results/masterSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mei/Desktop/transcriptionFactoriesGREG/MachineLearning/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7D5E0B-DD71-BB4A-9587-2DD0B7B01DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B2B302-367E-5A4F-BE0C-47C15533F070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="6340" windowWidth="28040" windowHeight="17440" xr2:uid="{ACD00532-464F-4F40-9FD1-7BF709965D2B}"/>
+    <workbookView xWindow="29780" yWindow="1540" windowWidth="28040" windowHeight="17440" xr2:uid="{ACD00532-464F-4F40-9FD1-7BF709965D2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>S.No.</t>
   </si>
@@ -109,6 +109,30 @@
   </si>
   <si>
     <t>RAD21</t>
+  </si>
+  <si>
+    <t>h1escparetoModelSmote</t>
+  </si>
+  <si>
+    <t>H3K9me3</t>
+  </si>
+  <si>
+    <t>helamodel1SMOTE</t>
+  </si>
+  <si>
+    <t>imr90paretoModelSmote</t>
+  </si>
+  <si>
+    <t>H3K36me3</t>
+  </si>
+  <si>
+    <t>k562modelSMOTE</t>
+  </si>
+  <si>
+    <t>RNA.Seq</t>
+  </si>
+  <si>
+    <t>mcf7paretoModelSmote</t>
   </si>
 </sst>
 </file>
@@ -481,13 +505,13 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -521,6 +545,9 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -529,8 +556,14 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
       <c r="D3" t="s">
         <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -540,8 +573,14 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
       <c r="D4" t="s">
         <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -551,8 +590,14 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" t="s">
         <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -562,8 +607,14 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
       <c r="D6" t="s">
         <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -573,8 +624,14 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
       <c r="D7" t="s">
         <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
